--- a/jankin-bi-backend/src/main/resources/网站数据.xlsx
+++ b/jankin-bi-backend/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\jankin-bi\jankin-bi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860695A9-E27B-4EA5-A81C-FA178D1E2598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5883834D-A57B-4420-BF9A-004732D2D101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,22 @@
   </si>
   <si>
     <t>1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +442,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -471,16 +487,39 @@
       <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
       <c r="D8"/>
     </row>
   </sheetData>
